--- a/study03/report/learning-outcomes/signedup-participants/NonParametricAnalysis.xlsx
+++ b/study03/report/learning-outcomes/signedup-participants/NonParametricAnalysis.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="94">
   <si>
-    <t>Summary of  for Gains in Skills/Knowledge - Recursion</t>
+    <t>Summary of  for Gains in Skill/Knowledge - Recursion</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -104,7 +104,7 @@
     <t>w/o-gamified.Apprentice - w/o-gamified.Master</t>
   </si>
   <si>
-    <t>Summary of Wilcoxon Analysis for Gains in Skills/Knowledge - Recursion</t>
+    <t>Summary of Wilcoxon Analysis for Gains in Skill/Knowledge - Recursion</t>
   </si>
   <si>
     <t>Wilcoxon test results for Type - Alternative hypothesis: greater</t>
@@ -158,7 +158,7 @@
     <t>large</t>
   </si>
   <si>
-    <t>Wilcoxon Analysis for Gains in Skills/Knowledge - Recursion in Type between ont-gamified:w/o-gamified</t>
+    <t>Wilcoxon Analysis for Gains in Skill/Knowledge - Recursion in Type between ont-gamified:w/o-gamified</t>
   </si>
   <si>
     <t>Wilcoxon test results</t>
@@ -278,7 +278,7 @@
     <t>Yee Achiever</t>
   </si>
   <si>
-    <t>Wilcoxon Analysis for Gains in Skills/Knowledge - Recursion in Type:CLRole between ont-gamified.Apprentice:ont-gamified.Master</t>
+    <t>Wilcoxon Analysis for Gains in Skill/Knowledge - Recursion in Type:CLRole between ont-gamified.Apprentice:ont-gamified.Master</t>
   </si>
   <si>
     <t>ont-gamified.Master</t>
@@ -287,22 +287,22 @@
     <t>small</t>
   </si>
   <si>
-    <t>Wilcoxon Analysis for Gains in Skills/Knowledge - Recursion in Type:CLRole between ont-gamified.Apprentice:w/o-gamified.Apprentice</t>
+    <t>Wilcoxon Analysis for Gains in Skill/Knowledge - Recursion in Type:CLRole between ont-gamified.Apprentice:w/o-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Wilcoxon Analysis for Gains in Skills/Knowledge - Recursion in Type:CLRole between ont-gamified.Apprentice:w/o-gamified.Master</t>
+    <t>Wilcoxon Analysis for Gains in Skill/Knowledge - Recursion in Type:CLRole between ont-gamified.Apprentice:w/o-gamified.Master</t>
   </si>
   <si>
-    <t>Wilcoxon Analysis for Gains in Skills/Knowledge - Recursion in Type:CLRole between ont-gamified.Master:w/o-gamified.Apprentice</t>
+    <t>Wilcoxon Analysis for Gains in Skill/Knowledge - Recursion in Type:CLRole between ont-gamified.Master:w/o-gamified.Apprentice</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
-    <t>Wilcoxon Analysis for Gains in Skills/Knowledge - Recursion in Type:CLRole between ont-gamified.Master:w/o-gamified.Master</t>
+    <t>Wilcoxon Analysis for Gains in Skill/Knowledge - Recursion in Type:CLRole between ont-gamified.Master:w/o-gamified.Master</t>
   </si>
   <si>
-    <t>Wilcoxon Analysis for Gains in Skills/Knowledge - Recursion in Type:CLRole between w/o-gamified.Apprentice:w/o-gamified.Master</t>
+    <t>Wilcoxon Analysis for Gains in Skill/Knowledge - Recursion in Type:CLRole between w/o-gamified.Apprentice:w/o-gamified.Master</t>
   </si>
 </sst>
 </file>
